--- a/ACS Controller-Element_Profile.xlsx
+++ b/ACS Controller-Element_Profile.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paululisse/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorbernhard/Downloads/system-surveyor-main 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46218B87-6831-3F40-B1B6-95B772F444C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CDA109-AB7C-A643-AF29-B7014C53BD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42180" yWindow="1600" windowWidth="34560" windowHeight="20140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element Profiles" sheetId="1" r:id="rId1"/>
     <sheet name="Accessories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="76">
   <si>
     <t>Export date: Oct 09, 2024</t>
   </si>
@@ -90,9 +103,6 @@
   </si>
   <si>
     <t>Device Price</t>
-  </si>
-  <si>
-    <t>1299</t>
   </si>
   <si>
     <t>Installation Hours</t>
@@ -463,20 +473,20 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="bold" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -786,7 +796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:SJ36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -801,1015 +813,1015 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12"/>
-      <c r="CW1" s="12"/>
-      <c r="CX1" s="12"/>
-      <c r="CY1" s="12"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="12"/>
-      <c r="DC1" s="12"/>
-      <c r="DD1" s="12"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12"/>
-      <c r="DI1" s="12"/>
-      <c r="DJ1" s="12"/>
-      <c r="DK1" s="12"/>
-      <c r="DL1" s="12"/>
-      <c r="DM1" s="12"/>
-      <c r="DN1" s="12"/>
-      <c r="DO1" s="12"/>
-      <c r="DP1" s="12"/>
-      <c r="DQ1" s="12"/>
-      <c r="DR1" s="12"/>
-      <c r="DS1" s="12"/>
-      <c r="DT1" s="12"/>
-      <c r="DU1" s="12"/>
-      <c r="DV1" s="12"/>
-      <c r="DW1" s="12"/>
-      <c r="DX1" s="12"/>
-      <c r="DY1" s="12"/>
-      <c r="DZ1" s="12"/>
-      <c r="EA1" s="12"/>
-      <c r="EB1" s="12"/>
-      <c r="EC1" s="12"/>
-      <c r="ED1" s="12"/>
-      <c r="EE1" s="12"/>
-      <c r="EF1" s="12"/>
-      <c r="EG1" s="12"/>
-      <c r="EH1" s="12"/>
-      <c r="EI1" s="12"/>
-      <c r="EJ1" s="12"/>
-      <c r="EK1" s="12"/>
-      <c r="EL1" s="12"/>
-      <c r="EM1" s="12"/>
-      <c r="EN1" s="12"/>
-      <c r="EO1" s="12"/>
-      <c r="EP1" s="12"/>
-      <c r="EQ1" s="12"/>
-      <c r="ER1" s="12"/>
-      <c r="ES1" s="12"/>
-      <c r="ET1" s="12"/>
-      <c r="EU1" s="12"/>
-      <c r="EV1" s="12"/>
-      <c r="EW1" s="12"/>
-      <c r="EX1" s="12"/>
-      <c r="EY1" s="12"/>
-      <c r="EZ1" s="12"/>
-      <c r="FA1" s="12"/>
-      <c r="FB1" s="12"/>
-      <c r="FC1" s="12"/>
-      <c r="FD1" s="12"/>
-      <c r="FE1" s="12"/>
-      <c r="FF1" s="12"/>
-      <c r="FG1" s="12"/>
-      <c r="FH1" s="12"/>
-      <c r="FI1" s="12"/>
-      <c r="FJ1" s="12"/>
-      <c r="FK1" s="12"/>
-      <c r="FL1" s="12"/>
-      <c r="FM1" s="12"/>
-      <c r="FN1" s="12"/>
-      <c r="FO1" s="12"/>
-      <c r="FP1" s="12"/>
-      <c r="FQ1" s="12"/>
-      <c r="FR1" s="12"/>
-      <c r="FS1" s="12"/>
-      <c r="FT1" s="12"/>
-      <c r="FU1" s="12"/>
-      <c r="FV1" s="12"/>
-      <c r="FW1" s="12"/>
-      <c r="FX1" s="12"/>
-      <c r="FY1" s="12"/>
-      <c r="FZ1" s="12"/>
-      <c r="GA1" s="12"/>
-      <c r="GB1" s="12"/>
-      <c r="GC1" s="12"/>
-      <c r="GD1" s="12"/>
-      <c r="GE1" s="12"/>
-      <c r="GF1" s="12"/>
-      <c r="GG1" s="12"/>
-      <c r="GH1" s="12"/>
-      <c r="GI1" s="12"/>
-      <c r="GJ1" s="12"/>
-      <c r="GK1" s="12"/>
-      <c r="GL1" s="12"/>
-      <c r="GM1" s="12"/>
-      <c r="GN1" s="12"/>
-      <c r="GO1" s="12"/>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
-      <c r="GT1" s="12"/>
-      <c r="GU1" s="12"/>
-      <c r="GV1" s="12"/>
-      <c r="GW1" s="12"/>
-      <c r="GX1" s="12"/>
-      <c r="GY1" s="12"/>
-      <c r="GZ1" s="12"/>
-      <c r="HA1" s="12"/>
-      <c r="HB1" s="12"/>
-      <c r="HC1" s="12"/>
-      <c r="HD1" s="12"/>
-      <c r="HE1" s="12"/>
-      <c r="HF1" s="12"/>
-      <c r="HG1" s="12"/>
-      <c r="HH1" s="12"/>
-      <c r="HI1" s="12"/>
-      <c r="HJ1" s="12"/>
-      <c r="HK1" s="12"/>
-      <c r="HL1" s="12"/>
-      <c r="HM1" s="12"/>
-      <c r="HN1" s="12"/>
-      <c r="HO1" s="12"/>
-      <c r="HP1" s="12"/>
-      <c r="HQ1" s="12"/>
-      <c r="HR1" s="12"/>
-      <c r="HS1" s="12"/>
-      <c r="HT1" s="12"/>
-      <c r="HU1" s="12"/>
-      <c r="HV1" s="12"/>
-      <c r="HW1" s="12"/>
-      <c r="HX1" s="12"/>
-      <c r="HY1" s="12"/>
-      <c r="HZ1" s="12"/>
-      <c r="IA1" s="12"/>
-      <c r="IB1" s="12"/>
-      <c r="IC1" s="12"/>
-      <c r="ID1" s="12"/>
-      <c r="IE1" s="12"/>
-      <c r="IF1" s="12"/>
-      <c r="IG1" s="12"/>
-      <c r="IH1" s="12"/>
-      <c r="II1" s="12"/>
-      <c r="IJ1" s="12"/>
-      <c r="IK1" s="12"/>
-      <c r="IL1" s="12"/>
-      <c r="IM1" s="12"/>
-      <c r="IN1" s="12"/>
-      <c r="IO1" s="12"/>
-      <c r="IP1" s="12"/>
-      <c r="IQ1" s="12"/>
-      <c r="IR1" s="12"/>
-      <c r="IS1" s="12"/>
-      <c r="IT1" s="12"/>
-      <c r="IU1" s="12"/>
-      <c r="IV1" s="12"/>
-      <c r="IW1" s="12"/>
-      <c r="IX1" s="12"/>
-      <c r="IY1" s="12"/>
-      <c r="IZ1" s="12"/>
-      <c r="JA1" s="12"/>
-      <c r="JB1" s="12"/>
-      <c r="JC1" s="12"/>
-      <c r="JD1" s="12"/>
-      <c r="JE1" s="12"/>
-      <c r="JF1" s="12"/>
-      <c r="JG1" s="12"/>
-      <c r="JH1" s="12"/>
-      <c r="JI1" s="12"/>
-      <c r="JJ1" s="12"/>
-      <c r="JK1" s="12"/>
-      <c r="JL1" s="12"/>
-      <c r="JM1" s="12"/>
-      <c r="JN1" s="12"/>
-      <c r="JO1" s="12"/>
-      <c r="JP1" s="12"/>
-      <c r="JQ1" s="12"/>
-      <c r="JR1" s="12"/>
-      <c r="JS1" s="12"/>
-      <c r="JT1" s="12"/>
-      <c r="JU1" s="12"/>
-      <c r="JV1" s="12"/>
-      <c r="JW1" s="12"/>
-      <c r="JX1" s="12"/>
-      <c r="JY1" s="12"/>
-      <c r="JZ1" s="12"/>
-      <c r="KA1" s="12"/>
-      <c r="KB1" s="12"/>
-      <c r="KC1" s="12"/>
-      <c r="KD1" s="12"/>
-      <c r="KE1" s="12"/>
-      <c r="KF1" s="12"/>
-      <c r="KG1" s="12"/>
-      <c r="KH1" s="12"/>
-      <c r="KI1" s="12"/>
-      <c r="KJ1" s="12"/>
-      <c r="KK1" s="12"/>
-      <c r="KL1" s="12"/>
-      <c r="KM1" s="12"/>
-      <c r="KN1" s="12"/>
-      <c r="KO1" s="12"/>
-      <c r="KP1" s="12"/>
-      <c r="KQ1" s="12"/>
-      <c r="KR1" s="12"/>
-      <c r="KS1" s="12"/>
-      <c r="KT1" s="12"/>
-      <c r="KU1" s="12"/>
-      <c r="KV1" s="12"/>
-      <c r="KW1" s="12"/>
-      <c r="KX1" s="12"/>
-      <c r="KY1" s="12"/>
-      <c r="KZ1" s="12"/>
-      <c r="LA1" s="12"/>
-      <c r="LB1" s="12"/>
-      <c r="LC1" s="12"/>
-      <c r="LD1" s="12"/>
-      <c r="LE1" s="12"/>
-      <c r="LF1" s="12"/>
-      <c r="LG1" s="12"/>
-      <c r="LH1" s="12"/>
-      <c r="LI1" s="12"/>
-      <c r="LJ1" s="12"/>
-      <c r="LK1" s="12"/>
-      <c r="LL1" s="12"/>
-      <c r="LM1" s="12"/>
-      <c r="LN1" s="12"/>
-      <c r="LO1" s="12"/>
-      <c r="LP1" s="12"/>
-      <c r="LQ1" s="12"/>
-      <c r="LR1" s="12"/>
-      <c r="LS1" s="12"/>
-      <c r="LT1" s="12"/>
-      <c r="LU1" s="12"/>
-      <c r="LV1" s="12"/>
-      <c r="LW1" s="12"/>
-      <c r="LX1" s="12"/>
-      <c r="LY1" s="12"/>
-      <c r="LZ1" s="12"/>
-      <c r="MA1" s="12"/>
-      <c r="MB1" s="12"/>
-      <c r="MC1" s="12"/>
-      <c r="MD1" s="12"/>
-      <c r="ME1" s="12"/>
-      <c r="MF1" s="12"/>
-      <c r="MG1" s="12"/>
-      <c r="MH1" s="12"/>
-      <c r="MI1" s="12"/>
-      <c r="MJ1" s="12"/>
-      <c r="MK1" s="12"/>
-      <c r="ML1" s="12"/>
-      <c r="MM1" s="12"/>
-      <c r="MN1" s="12"/>
-      <c r="MO1" s="12"/>
-      <c r="MP1" s="12"/>
-      <c r="MQ1" s="12"/>
-      <c r="MR1" s="12"/>
-      <c r="MS1" s="12"/>
-      <c r="MT1" s="12"/>
-      <c r="MU1" s="12"/>
-      <c r="MV1" s="12"/>
-      <c r="MW1" s="12"/>
-      <c r="MX1" s="12"/>
-      <c r="MY1" s="12"/>
-      <c r="MZ1" s="12"/>
-      <c r="NA1" s="12"/>
-      <c r="NB1" s="12"/>
-      <c r="NC1" s="12"/>
-      <c r="ND1" s="12"/>
-      <c r="NE1" s="12"/>
-      <c r="NF1" s="12"/>
-      <c r="NG1" s="12"/>
-      <c r="NH1" s="12"/>
-      <c r="NI1" s="12"/>
-      <c r="NJ1" s="12"/>
-      <c r="NK1" s="12"/>
-      <c r="NL1" s="12"/>
-      <c r="NM1" s="12"/>
-      <c r="NN1" s="12"/>
-      <c r="NO1" s="12"/>
-      <c r="NP1" s="12"/>
-      <c r="NQ1" s="12"/>
-      <c r="NR1" s="12"/>
-      <c r="NS1" s="12"/>
-      <c r="NT1" s="12"/>
-      <c r="NU1" s="12"/>
-      <c r="NV1" s="12"/>
-      <c r="NW1" s="12"/>
-      <c r="NX1" s="12"/>
-      <c r="NY1" s="12"/>
-      <c r="NZ1" s="12"/>
-      <c r="OA1" s="12"/>
-      <c r="OB1" s="12"/>
-      <c r="OC1" s="12"/>
-      <c r="OD1" s="12"/>
-      <c r="OE1" s="12"/>
-      <c r="OF1" s="12"/>
-      <c r="OG1" s="12"/>
-      <c r="OH1" s="12"/>
-      <c r="OI1" s="12"/>
-      <c r="OJ1" s="12"/>
-      <c r="OK1" s="12"/>
-      <c r="OL1" s="12"/>
-      <c r="OM1" s="12"/>
-      <c r="ON1" s="12"/>
-      <c r="OO1" s="12"/>
-      <c r="OP1" s="12"/>
-      <c r="OQ1" s="12"/>
-      <c r="OR1" s="12"/>
-      <c r="OS1" s="12"/>
-      <c r="OT1" s="12"/>
-      <c r="OU1" s="12"/>
-      <c r="OV1" s="12"/>
-      <c r="OW1" s="12"/>
-      <c r="OX1" s="12"/>
-      <c r="OY1" s="12"/>
-      <c r="OZ1" s="12"/>
-      <c r="PA1" s="12"/>
-      <c r="PB1" s="12"/>
-      <c r="PC1" s="12"/>
-      <c r="PD1" s="12"/>
-      <c r="PE1" s="12"/>
-      <c r="PF1" s="12"/>
-      <c r="PG1" s="12"/>
-      <c r="PH1" s="12"/>
-      <c r="PI1" s="12"/>
-      <c r="PJ1" s="12"/>
-      <c r="PK1" s="12"/>
-      <c r="PL1" s="12"/>
-      <c r="PM1" s="12"/>
-      <c r="PN1" s="12"/>
-      <c r="PO1" s="12"/>
-      <c r="PP1" s="12"/>
-      <c r="PQ1" s="12"/>
-      <c r="PR1" s="12"/>
-      <c r="PS1" s="12"/>
-      <c r="PT1" s="12"/>
-      <c r="PU1" s="12"/>
-      <c r="PV1" s="12"/>
-      <c r="PW1" s="12"/>
-      <c r="PX1" s="12"/>
-      <c r="PY1" s="12"/>
-      <c r="PZ1" s="12"/>
-      <c r="QA1" s="12"/>
-      <c r="QB1" s="12"/>
-      <c r="QC1" s="12"/>
-      <c r="QD1" s="12"/>
-      <c r="QE1" s="12"/>
-      <c r="QF1" s="12"/>
-      <c r="QG1" s="12"/>
-      <c r="QH1" s="12"/>
-      <c r="QI1" s="12"/>
-      <c r="QJ1" s="12"/>
-      <c r="QK1" s="12"/>
-      <c r="QL1" s="12"/>
-      <c r="QM1" s="12"/>
-      <c r="QN1" s="12"/>
-      <c r="QO1" s="12"/>
-      <c r="QP1" s="12"/>
-      <c r="QQ1" s="12"/>
-      <c r="QR1" s="12"/>
-      <c r="QS1" s="12"/>
-      <c r="QT1" s="12"/>
-      <c r="QU1" s="12"/>
-      <c r="QV1" s="12"/>
-      <c r="QW1" s="12"/>
-      <c r="QX1" s="12"/>
-      <c r="QY1" s="12"/>
-      <c r="QZ1" s="12"/>
-      <c r="RA1" s="12"/>
-      <c r="RB1" s="12"/>
-      <c r="RC1" s="12"/>
-      <c r="RD1" s="12"/>
-      <c r="RE1" s="12"/>
-      <c r="RF1" s="12"/>
-      <c r="RG1" s="12"/>
-      <c r="RH1" s="12"/>
-      <c r="RI1" s="12"/>
-      <c r="RJ1" s="12"/>
-      <c r="RK1" s="12"/>
-      <c r="RL1" s="12"/>
-      <c r="RM1" s="12"/>
-      <c r="RN1" s="12"/>
-      <c r="RO1" s="12"/>
-      <c r="RP1" s="12"/>
-      <c r="RQ1" s="12"/>
-      <c r="RR1" s="12"/>
-      <c r="RS1" s="12"/>
-      <c r="RT1" s="12"/>
-      <c r="RU1" s="12"/>
-      <c r="RV1" s="12"/>
-      <c r="RW1" s="12"/>
-      <c r="RX1" s="12"/>
-      <c r="RY1" s="12"/>
-      <c r="RZ1" s="12"/>
-      <c r="SA1" s="12"/>
-      <c r="SB1" s="12"/>
-      <c r="SC1" s="12"/>
-      <c r="SD1" s="12"/>
-      <c r="SE1" s="12"/>
-      <c r="SF1" s="12"/>
-      <c r="SG1" s="12"/>
-      <c r="SH1" s="12"/>
-      <c r="SI1" s="12"/>
-      <c r="SJ1" s="13"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+      <c r="CP1" s="16"/>
+      <c r="CQ1" s="16"/>
+      <c r="CR1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="16"/>
+      <c r="CU1" s="16"/>
+      <c r="CV1" s="16"/>
+      <c r="CW1" s="16"/>
+      <c r="CX1" s="16"/>
+      <c r="CY1" s="16"/>
+      <c r="CZ1" s="16"/>
+      <c r="DA1" s="16"/>
+      <c r="DB1" s="16"/>
+      <c r="DC1" s="16"/>
+      <c r="DD1" s="16"/>
+      <c r="DE1" s="16"/>
+      <c r="DF1" s="16"/>
+      <c r="DG1" s="16"/>
+      <c r="DH1" s="16"/>
+      <c r="DI1" s="16"/>
+      <c r="DJ1" s="16"/>
+      <c r="DK1" s="16"/>
+      <c r="DL1" s="16"/>
+      <c r="DM1" s="16"/>
+      <c r="DN1" s="16"/>
+      <c r="DO1" s="16"/>
+      <c r="DP1" s="16"/>
+      <c r="DQ1" s="16"/>
+      <c r="DR1" s="16"/>
+      <c r="DS1" s="16"/>
+      <c r="DT1" s="16"/>
+      <c r="DU1" s="16"/>
+      <c r="DV1" s="16"/>
+      <c r="DW1" s="16"/>
+      <c r="DX1" s="16"/>
+      <c r="DY1" s="16"/>
+      <c r="DZ1" s="16"/>
+      <c r="EA1" s="16"/>
+      <c r="EB1" s="16"/>
+      <c r="EC1" s="16"/>
+      <c r="ED1" s="16"/>
+      <c r="EE1" s="16"/>
+      <c r="EF1" s="16"/>
+      <c r="EG1" s="16"/>
+      <c r="EH1" s="16"/>
+      <c r="EI1" s="16"/>
+      <c r="EJ1" s="16"/>
+      <c r="EK1" s="16"/>
+      <c r="EL1" s="16"/>
+      <c r="EM1" s="16"/>
+      <c r="EN1" s="16"/>
+      <c r="EO1" s="16"/>
+      <c r="EP1" s="16"/>
+      <c r="EQ1" s="16"/>
+      <c r="ER1" s="16"/>
+      <c r="ES1" s="16"/>
+      <c r="ET1" s="16"/>
+      <c r="EU1" s="16"/>
+      <c r="EV1" s="16"/>
+      <c r="EW1" s="16"/>
+      <c r="EX1" s="16"/>
+      <c r="EY1" s="16"/>
+      <c r="EZ1" s="16"/>
+      <c r="FA1" s="16"/>
+      <c r="FB1" s="16"/>
+      <c r="FC1" s="16"/>
+      <c r="FD1" s="16"/>
+      <c r="FE1" s="16"/>
+      <c r="FF1" s="16"/>
+      <c r="FG1" s="16"/>
+      <c r="FH1" s="16"/>
+      <c r="FI1" s="16"/>
+      <c r="FJ1" s="16"/>
+      <c r="FK1" s="16"/>
+      <c r="FL1" s="16"/>
+      <c r="FM1" s="16"/>
+      <c r="FN1" s="16"/>
+      <c r="FO1" s="16"/>
+      <c r="FP1" s="16"/>
+      <c r="FQ1" s="16"/>
+      <c r="FR1" s="16"/>
+      <c r="FS1" s="16"/>
+      <c r="FT1" s="16"/>
+      <c r="FU1" s="16"/>
+      <c r="FV1" s="16"/>
+      <c r="FW1" s="16"/>
+      <c r="FX1" s="16"/>
+      <c r="FY1" s="16"/>
+      <c r="FZ1" s="16"/>
+      <c r="GA1" s="16"/>
+      <c r="GB1" s="16"/>
+      <c r="GC1" s="16"/>
+      <c r="GD1" s="16"/>
+      <c r="GE1" s="16"/>
+      <c r="GF1" s="16"/>
+      <c r="GG1" s="16"/>
+      <c r="GH1" s="16"/>
+      <c r="GI1" s="16"/>
+      <c r="GJ1" s="16"/>
+      <c r="GK1" s="16"/>
+      <c r="GL1" s="16"/>
+      <c r="GM1" s="16"/>
+      <c r="GN1" s="16"/>
+      <c r="GO1" s="16"/>
+      <c r="GP1" s="16"/>
+      <c r="GQ1" s="16"/>
+      <c r="GR1" s="16"/>
+      <c r="GS1" s="16"/>
+      <c r="GT1" s="16"/>
+      <c r="GU1" s="16"/>
+      <c r="GV1" s="16"/>
+      <c r="GW1" s="16"/>
+      <c r="GX1" s="16"/>
+      <c r="GY1" s="16"/>
+      <c r="GZ1" s="16"/>
+      <c r="HA1" s="16"/>
+      <c r="HB1" s="16"/>
+      <c r="HC1" s="16"/>
+      <c r="HD1" s="16"/>
+      <c r="HE1" s="16"/>
+      <c r="HF1" s="16"/>
+      <c r="HG1" s="16"/>
+      <c r="HH1" s="16"/>
+      <c r="HI1" s="16"/>
+      <c r="HJ1" s="16"/>
+      <c r="HK1" s="16"/>
+      <c r="HL1" s="16"/>
+      <c r="HM1" s="16"/>
+      <c r="HN1" s="16"/>
+      <c r="HO1" s="16"/>
+      <c r="HP1" s="16"/>
+      <c r="HQ1" s="16"/>
+      <c r="HR1" s="16"/>
+      <c r="HS1" s="16"/>
+      <c r="HT1" s="16"/>
+      <c r="HU1" s="16"/>
+      <c r="HV1" s="16"/>
+      <c r="HW1" s="16"/>
+      <c r="HX1" s="16"/>
+      <c r="HY1" s="16"/>
+      <c r="HZ1" s="16"/>
+      <c r="IA1" s="16"/>
+      <c r="IB1" s="16"/>
+      <c r="IC1" s="16"/>
+      <c r="ID1" s="16"/>
+      <c r="IE1" s="16"/>
+      <c r="IF1" s="16"/>
+      <c r="IG1" s="16"/>
+      <c r="IH1" s="16"/>
+      <c r="II1" s="16"/>
+      <c r="IJ1" s="16"/>
+      <c r="IK1" s="16"/>
+      <c r="IL1" s="16"/>
+      <c r="IM1" s="16"/>
+      <c r="IN1" s="16"/>
+      <c r="IO1" s="16"/>
+      <c r="IP1" s="16"/>
+      <c r="IQ1" s="16"/>
+      <c r="IR1" s="16"/>
+      <c r="IS1" s="16"/>
+      <c r="IT1" s="16"/>
+      <c r="IU1" s="16"/>
+      <c r="IV1" s="16"/>
+      <c r="IW1" s="16"/>
+      <c r="IX1" s="16"/>
+      <c r="IY1" s="16"/>
+      <c r="IZ1" s="16"/>
+      <c r="JA1" s="16"/>
+      <c r="JB1" s="16"/>
+      <c r="JC1" s="16"/>
+      <c r="JD1" s="16"/>
+      <c r="JE1" s="16"/>
+      <c r="JF1" s="16"/>
+      <c r="JG1" s="16"/>
+      <c r="JH1" s="16"/>
+      <c r="JI1" s="16"/>
+      <c r="JJ1" s="16"/>
+      <c r="JK1" s="16"/>
+      <c r="JL1" s="16"/>
+      <c r="JM1" s="16"/>
+      <c r="JN1" s="16"/>
+      <c r="JO1" s="16"/>
+      <c r="JP1" s="16"/>
+      <c r="JQ1" s="16"/>
+      <c r="JR1" s="16"/>
+      <c r="JS1" s="16"/>
+      <c r="JT1" s="16"/>
+      <c r="JU1" s="16"/>
+      <c r="JV1" s="16"/>
+      <c r="JW1" s="16"/>
+      <c r="JX1" s="16"/>
+      <c r="JY1" s="16"/>
+      <c r="JZ1" s="16"/>
+      <c r="KA1" s="16"/>
+      <c r="KB1" s="16"/>
+      <c r="KC1" s="16"/>
+      <c r="KD1" s="16"/>
+      <c r="KE1" s="16"/>
+      <c r="KF1" s="16"/>
+      <c r="KG1" s="16"/>
+      <c r="KH1" s="16"/>
+      <c r="KI1" s="16"/>
+      <c r="KJ1" s="16"/>
+      <c r="KK1" s="16"/>
+      <c r="KL1" s="16"/>
+      <c r="KM1" s="16"/>
+      <c r="KN1" s="16"/>
+      <c r="KO1" s="16"/>
+      <c r="KP1" s="16"/>
+      <c r="KQ1" s="16"/>
+      <c r="KR1" s="16"/>
+      <c r="KS1" s="16"/>
+      <c r="KT1" s="16"/>
+      <c r="KU1" s="16"/>
+      <c r="KV1" s="16"/>
+      <c r="KW1" s="16"/>
+      <c r="KX1" s="16"/>
+      <c r="KY1" s="16"/>
+      <c r="KZ1" s="16"/>
+      <c r="LA1" s="16"/>
+      <c r="LB1" s="16"/>
+      <c r="LC1" s="16"/>
+      <c r="LD1" s="16"/>
+      <c r="LE1" s="16"/>
+      <c r="LF1" s="16"/>
+      <c r="LG1" s="16"/>
+      <c r="LH1" s="16"/>
+      <c r="LI1" s="16"/>
+      <c r="LJ1" s="16"/>
+      <c r="LK1" s="16"/>
+      <c r="LL1" s="16"/>
+      <c r="LM1" s="16"/>
+      <c r="LN1" s="16"/>
+      <c r="LO1" s="16"/>
+      <c r="LP1" s="16"/>
+      <c r="LQ1" s="16"/>
+      <c r="LR1" s="16"/>
+      <c r="LS1" s="16"/>
+      <c r="LT1" s="16"/>
+      <c r="LU1" s="16"/>
+      <c r="LV1" s="16"/>
+      <c r="LW1" s="16"/>
+      <c r="LX1" s="16"/>
+      <c r="LY1" s="16"/>
+      <c r="LZ1" s="16"/>
+      <c r="MA1" s="16"/>
+      <c r="MB1" s="16"/>
+      <c r="MC1" s="16"/>
+      <c r="MD1" s="16"/>
+      <c r="ME1" s="16"/>
+      <c r="MF1" s="16"/>
+      <c r="MG1" s="16"/>
+      <c r="MH1" s="16"/>
+      <c r="MI1" s="16"/>
+      <c r="MJ1" s="16"/>
+      <c r="MK1" s="16"/>
+      <c r="ML1" s="16"/>
+      <c r="MM1" s="16"/>
+      <c r="MN1" s="16"/>
+      <c r="MO1" s="16"/>
+      <c r="MP1" s="16"/>
+      <c r="MQ1" s="16"/>
+      <c r="MR1" s="16"/>
+      <c r="MS1" s="16"/>
+      <c r="MT1" s="16"/>
+      <c r="MU1" s="16"/>
+      <c r="MV1" s="16"/>
+      <c r="MW1" s="16"/>
+      <c r="MX1" s="16"/>
+      <c r="MY1" s="16"/>
+      <c r="MZ1" s="16"/>
+      <c r="NA1" s="16"/>
+      <c r="NB1" s="16"/>
+      <c r="NC1" s="16"/>
+      <c r="ND1" s="16"/>
+      <c r="NE1" s="16"/>
+      <c r="NF1" s="16"/>
+      <c r="NG1" s="16"/>
+      <c r="NH1" s="16"/>
+      <c r="NI1" s="16"/>
+      <c r="NJ1" s="16"/>
+      <c r="NK1" s="16"/>
+      <c r="NL1" s="16"/>
+      <c r="NM1" s="16"/>
+      <c r="NN1" s="16"/>
+      <c r="NO1" s="16"/>
+      <c r="NP1" s="16"/>
+      <c r="NQ1" s="16"/>
+      <c r="NR1" s="16"/>
+      <c r="NS1" s="16"/>
+      <c r="NT1" s="16"/>
+      <c r="NU1" s="16"/>
+      <c r="NV1" s="16"/>
+      <c r="NW1" s="16"/>
+      <c r="NX1" s="16"/>
+      <c r="NY1" s="16"/>
+      <c r="NZ1" s="16"/>
+      <c r="OA1" s="16"/>
+      <c r="OB1" s="16"/>
+      <c r="OC1" s="16"/>
+      <c r="OD1" s="16"/>
+      <c r="OE1" s="16"/>
+      <c r="OF1" s="16"/>
+      <c r="OG1" s="16"/>
+      <c r="OH1" s="16"/>
+      <c r="OI1" s="16"/>
+      <c r="OJ1" s="16"/>
+      <c r="OK1" s="16"/>
+      <c r="OL1" s="16"/>
+      <c r="OM1" s="16"/>
+      <c r="ON1" s="16"/>
+      <c r="OO1" s="16"/>
+      <c r="OP1" s="16"/>
+      <c r="OQ1" s="16"/>
+      <c r="OR1" s="16"/>
+      <c r="OS1" s="16"/>
+      <c r="OT1" s="16"/>
+      <c r="OU1" s="16"/>
+      <c r="OV1" s="16"/>
+      <c r="OW1" s="16"/>
+      <c r="OX1" s="16"/>
+      <c r="OY1" s="16"/>
+      <c r="OZ1" s="16"/>
+      <c r="PA1" s="16"/>
+      <c r="PB1" s="16"/>
+      <c r="PC1" s="16"/>
+      <c r="PD1" s="16"/>
+      <c r="PE1" s="16"/>
+      <c r="PF1" s="16"/>
+      <c r="PG1" s="16"/>
+      <c r="PH1" s="16"/>
+      <c r="PI1" s="16"/>
+      <c r="PJ1" s="16"/>
+      <c r="PK1" s="16"/>
+      <c r="PL1" s="16"/>
+      <c r="PM1" s="16"/>
+      <c r="PN1" s="16"/>
+      <c r="PO1" s="16"/>
+      <c r="PP1" s="16"/>
+      <c r="PQ1" s="16"/>
+      <c r="PR1" s="16"/>
+      <c r="PS1" s="16"/>
+      <c r="PT1" s="16"/>
+      <c r="PU1" s="16"/>
+      <c r="PV1" s="16"/>
+      <c r="PW1" s="16"/>
+      <c r="PX1" s="16"/>
+      <c r="PY1" s="16"/>
+      <c r="PZ1" s="16"/>
+      <c r="QA1" s="16"/>
+      <c r="QB1" s="16"/>
+      <c r="QC1" s="16"/>
+      <c r="QD1" s="16"/>
+      <c r="QE1" s="16"/>
+      <c r="QF1" s="16"/>
+      <c r="QG1" s="16"/>
+      <c r="QH1" s="16"/>
+      <c r="QI1" s="16"/>
+      <c r="QJ1" s="16"/>
+      <c r="QK1" s="16"/>
+      <c r="QL1" s="16"/>
+      <c r="QM1" s="16"/>
+      <c r="QN1" s="16"/>
+      <c r="QO1" s="16"/>
+      <c r="QP1" s="16"/>
+      <c r="QQ1" s="16"/>
+      <c r="QR1" s="16"/>
+      <c r="QS1" s="16"/>
+      <c r="QT1" s="16"/>
+      <c r="QU1" s="16"/>
+      <c r="QV1" s="16"/>
+      <c r="QW1" s="16"/>
+      <c r="QX1" s="16"/>
+      <c r="QY1" s="16"/>
+      <c r="QZ1" s="16"/>
+      <c r="RA1" s="16"/>
+      <c r="RB1" s="16"/>
+      <c r="RC1" s="16"/>
+      <c r="RD1" s="16"/>
+      <c r="RE1" s="16"/>
+      <c r="RF1" s="16"/>
+      <c r="RG1" s="16"/>
+      <c r="RH1" s="16"/>
+      <c r="RI1" s="16"/>
+      <c r="RJ1" s="16"/>
+      <c r="RK1" s="16"/>
+      <c r="RL1" s="16"/>
+      <c r="RM1" s="16"/>
+      <c r="RN1" s="16"/>
+      <c r="RO1" s="16"/>
+      <c r="RP1" s="16"/>
+      <c r="RQ1" s="16"/>
+      <c r="RR1" s="16"/>
+      <c r="RS1" s="16"/>
+      <c r="RT1" s="16"/>
+      <c r="RU1" s="16"/>
+      <c r="RV1" s="16"/>
+      <c r="RW1" s="16"/>
+      <c r="RX1" s="16"/>
+      <c r="RY1" s="16"/>
+      <c r="RZ1" s="16"/>
+      <c r="SA1" s="16"/>
+      <c r="SB1" s="16"/>
+      <c r="SC1" s="16"/>
+      <c r="SD1" s="16"/>
+      <c r="SE1" s="16"/>
+      <c r="SF1" s="16"/>
+      <c r="SG1" s="16"/>
+      <c r="SH1" s="16"/>
+      <c r="SI1" s="16"/>
+      <c r="SJ1" s="17"/>
     </row>
     <row r="2" spans="3:504" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
-      <c r="BM2" s="12"/>
-      <c r="BN2" s="12"/>
-      <c r="BO2" s="12"/>
-      <c r="BP2" s="12"/>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="12"/>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="12"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="12"/>
-      <c r="BW2" s="12"/>
-      <c r="BX2" s="12"/>
-      <c r="BY2" s="12"/>
-      <c r="BZ2" s="12"/>
-      <c r="CA2" s="12"/>
-      <c r="CB2" s="12"/>
-      <c r="CC2" s="12"/>
-      <c r="CD2" s="12"/>
-      <c r="CE2" s="12"/>
-      <c r="CF2" s="12"/>
-      <c r="CG2" s="12"/>
-      <c r="CH2" s="12"/>
-      <c r="CI2" s="12"/>
-      <c r="CJ2" s="12"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="12"/>
-      <c r="CO2" s="12"/>
-      <c r="CP2" s="12"/>
-      <c r="CQ2" s="12"/>
-      <c r="CR2" s="12"/>
-      <c r="CS2" s="12"/>
-      <c r="CT2" s="12"/>
-      <c r="CU2" s="12"/>
-      <c r="CV2" s="12"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="12"/>
-      <c r="CY2" s="12"/>
-      <c r="CZ2" s="12"/>
-      <c r="DA2" s="12"/>
-      <c r="DB2" s="12"/>
-      <c r="DC2" s="12"/>
-      <c r="DD2" s="12"/>
-      <c r="DE2" s="12"/>
-      <c r="DF2" s="12"/>
-      <c r="DG2" s="12"/>
-      <c r="DH2" s="12"/>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="12"/>
-      <c r="DK2" s="12"/>
-      <c r="DL2" s="12"/>
-      <c r="DM2" s="12"/>
-      <c r="DN2" s="12"/>
-      <c r="DO2" s="12"/>
-      <c r="DP2" s="12"/>
-      <c r="DQ2" s="12"/>
-      <c r="DR2" s="12"/>
-      <c r="DS2" s="12"/>
-      <c r="DT2" s="12"/>
-      <c r="DU2" s="12"/>
-      <c r="DV2" s="12"/>
-      <c r="DW2" s="12"/>
-      <c r="DX2" s="12"/>
-      <c r="DY2" s="12"/>
-      <c r="DZ2" s="12"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="12"/>
-      <c r="EC2" s="12"/>
-      <c r="ED2" s="12"/>
-      <c r="EE2" s="12"/>
-      <c r="EF2" s="12"/>
-      <c r="EG2" s="12"/>
-      <c r="EH2" s="12"/>
-      <c r="EI2" s="12"/>
-      <c r="EJ2" s="12"/>
-      <c r="EK2" s="12"/>
-      <c r="EL2" s="12"/>
-      <c r="EM2" s="12"/>
-      <c r="EN2" s="12"/>
-      <c r="EO2" s="12"/>
-      <c r="EP2" s="12"/>
-      <c r="EQ2" s="12"/>
-      <c r="ER2" s="12"/>
-      <c r="ES2" s="12"/>
-      <c r="ET2" s="12"/>
-      <c r="EU2" s="12"/>
-      <c r="EV2" s="12"/>
-      <c r="EW2" s="12"/>
-      <c r="EX2" s="12"/>
-      <c r="EY2" s="12"/>
-      <c r="EZ2" s="12"/>
-      <c r="FA2" s="12"/>
-      <c r="FB2" s="12"/>
-      <c r="FC2" s="12"/>
-      <c r="FD2" s="12"/>
-      <c r="FE2" s="12"/>
-      <c r="FF2" s="12"/>
-      <c r="FG2" s="12"/>
-      <c r="FH2" s="12"/>
-      <c r="FI2" s="12"/>
-      <c r="FJ2" s="12"/>
-      <c r="FK2" s="12"/>
-      <c r="FL2" s="12"/>
-      <c r="FM2" s="12"/>
-      <c r="FN2" s="12"/>
-      <c r="FO2" s="12"/>
-      <c r="FP2" s="12"/>
-      <c r="FQ2" s="12"/>
-      <c r="FR2" s="12"/>
-      <c r="FS2" s="12"/>
-      <c r="FT2" s="12"/>
-      <c r="FU2" s="12"/>
-      <c r="FV2" s="12"/>
-      <c r="FW2" s="12"/>
-      <c r="FX2" s="12"/>
-      <c r="FY2" s="12"/>
-      <c r="FZ2" s="12"/>
-      <c r="GA2" s="12"/>
-      <c r="GB2" s="12"/>
-      <c r="GC2" s="12"/>
-      <c r="GD2" s="12"/>
-      <c r="GE2" s="12"/>
-      <c r="GF2" s="12"/>
-      <c r="GG2" s="12"/>
-      <c r="GH2" s="12"/>
-      <c r="GI2" s="12"/>
-      <c r="GJ2" s="12"/>
-      <c r="GK2" s="12"/>
-      <c r="GL2" s="12"/>
-      <c r="GM2" s="12"/>
-      <c r="GN2" s="12"/>
-      <c r="GO2" s="12"/>
-      <c r="GP2" s="12"/>
-      <c r="GQ2" s="12"/>
-      <c r="GR2" s="12"/>
-      <c r="GS2" s="12"/>
-      <c r="GT2" s="12"/>
-      <c r="GU2" s="12"/>
-      <c r="GV2" s="12"/>
-      <c r="GW2" s="12"/>
-      <c r="GX2" s="12"/>
-      <c r="GY2" s="12"/>
-      <c r="GZ2" s="12"/>
-      <c r="HA2" s="12"/>
-      <c r="HB2" s="12"/>
-      <c r="HC2" s="12"/>
-      <c r="HD2" s="12"/>
-      <c r="HE2" s="12"/>
-      <c r="HF2" s="12"/>
-      <c r="HG2" s="12"/>
-      <c r="HH2" s="12"/>
-      <c r="HI2" s="12"/>
-      <c r="HJ2" s="12"/>
-      <c r="HK2" s="12"/>
-      <c r="HL2" s="12"/>
-      <c r="HM2" s="12"/>
-      <c r="HN2" s="12"/>
-      <c r="HO2" s="12"/>
-      <c r="HP2" s="12"/>
-      <c r="HQ2" s="12"/>
-      <c r="HR2" s="12"/>
-      <c r="HS2" s="12"/>
-      <c r="HT2" s="12"/>
-      <c r="HU2" s="12"/>
-      <c r="HV2" s="12"/>
-      <c r="HW2" s="12"/>
-      <c r="HX2" s="12"/>
-      <c r="HY2" s="12"/>
-      <c r="HZ2" s="12"/>
-      <c r="IA2" s="12"/>
-      <c r="IB2" s="12"/>
-      <c r="IC2" s="12"/>
-      <c r="ID2" s="12"/>
-      <c r="IE2" s="12"/>
-      <c r="IF2" s="12"/>
-      <c r="IG2" s="12"/>
-      <c r="IH2" s="12"/>
-      <c r="II2" s="12"/>
-      <c r="IJ2" s="12"/>
-      <c r="IK2" s="12"/>
-      <c r="IL2" s="12"/>
-      <c r="IM2" s="12"/>
-      <c r="IN2" s="12"/>
-      <c r="IO2" s="12"/>
-      <c r="IP2" s="12"/>
-      <c r="IQ2" s="12"/>
-      <c r="IR2" s="12"/>
-      <c r="IS2" s="12"/>
-      <c r="IT2" s="12"/>
-      <c r="IU2" s="12"/>
-      <c r="IV2" s="12"/>
-      <c r="IW2" s="12"/>
-      <c r="IX2" s="12"/>
-      <c r="IY2" s="12"/>
-      <c r="IZ2" s="12"/>
-      <c r="JA2" s="12"/>
-      <c r="JB2" s="12"/>
-      <c r="JC2" s="12"/>
-      <c r="JD2" s="12"/>
-      <c r="JE2" s="12"/>
-      <c r="JF2" s="12"/>
-      <c r="JG2" s="12"/>
-      <c r="JH2" s="12"/>
-      <c r="JI2" s="12"/>
-      <c r="JJ2" s="12"/>
-      <c r="JK2" s="12"/>
-      <c r="JL2" s="12"/>
-      <c r="JM2" s="12"/>
-      <c r="JN2" s="12"/>
-      <c r="JO2" s="12"/>
-      <c r="JP2" s="12"/>
-      <c r="JQ2" s="12"/>
-      <c r="JR2" s="12"/>
-      <c r="JS2" s="12"/>
-      <c r="JT2" s="12"/>
-      <c r="JU2" s="12"/>
-      <c r="JV2" s="12"/>
-      <c r="JW2" s="12"/>
-      <c r="JX2" s="12"/>
-      <c r="JY2" s="12"/>
-      <c r="JZ2" s="12"/>
-      <c r="KA2" s="12"/>
-      <c r="KB2" s="12"/>
-      <c r="KC2" s="12"/>
-      <c r="KD2" s="12"/>
-      <c r="KE2" s="12"/>
-      <c r="KF2" s="12"/>
-      <c r="KG2" s="12"/>
-      <c r="KH2" s="12"/>
-      <c r="KI2" s="12"/>
-      <c r="KJ2" s="12"/>
-      <c r="KK2" s="12"/>
-      <c r="KL2" s="12"/>
-      <c r="KM2" s="12"/>
-      <c r="KN2" s="12"/>
-      <c r="KO2" s="12"/>
-      <c r="KP2" s="12"/>
-      <c r="KQ2" s="12"/>
-      <c r="KR2" s="12"/>
-      <c r="KS2" s="12"/>
-      <c r="KT2" s="12"/>
-      <c r="KU2" s="12"/>
-      <c r="KV2" s="12"/>
-      <c r="KW2" s="12"/>
-      <c r="KX2" s="12"/>
-      <c r="KY2" s="12"/>
-      <c r="KZ2" s="12"/>
-      <c r="LA2" s="12"/>
-      <c r="LB2" s="12"/>
-      <c r="LC2" s="12"/>
-      <c r="LD2" s="12"/>
-      <c r="LE2" s="12"/>
-      <c r="LF2" s="12"/>
-      <c r="LG2" s="12"/>
-      <c r="LH2" s="12"/>
-      <c r="LI2" s="12"/>
-      <c r="LJ2" s="12"/>
-      <c r="LK2" s="12"/>
-      <c r="LL2" s="12"/>
-      <c r="LM2" s="12"/>
-      <c r="LN2" s="12"/>
-      <c r="LO2" s="12"/>
-      <c r="LP2" s="12"/>
-      <c r="LQ2" s="12"/>
-      <c r="LR2" s="12"/>
-      <c r="LS2" s="12"/>
-      <c r="LT2" s="12"/>
-      <c r="LU2" s="12"/>
-      <c r="LV2" s="12"/>
-      <c r="LW2" s="12"/>
-      <c r="LX2" s="12"/>
-      <c r="LY2" s="12"/>
-      <c r="LZ2" s="12"/>
-      <c r="MA2" s="12"/>
-      <c r="MB2" s="12"/>
-      <c r="MC2" s="12"/>
-      <c r="MD2" s="12"/>
-      <c r="ME2" s="12"/>
-      <c r="MF2" s="12"/>
-      <c r="MG2" s="12"/>
-      <c r="MH2" s="12"/>
-      <c r="MI2" s="12"/>
-      <c r="MJ2" s="12"/>
-      <c r="MK2" s="12"/>
-      <c r="ML2" s="12"/>
-      <c r="MM2" s="12"/>
-      <c r="MN2" s="12"/>
-      <c r="MO2" s="12"/>
-      <c r="MP2" s="12"/>
-      <c r="MQ2" s="12"/>
-      <c r="MR2" s="12"/>
-      <c r="MS2" s="12"/>
-      <c r="MT2" s="12"/>
-      <c r="MU2" s="12"/>
-      <c r="MV2" s="12"/>
-      <c r="MW2" s="12"/>
-      <c r="MX2" s="12"/>
-      <c r="MY2" s="12"/>
-      <c r="MZ2" s="12"/>
-      <c r="NA2" s="12"/>
-      <c r="NB2" s="12"/>
-      <c r="NC2" s="12"/>
-      <c r="ND2" s="12"/>
-      <c r="NE2" s="12"/>
-      <c r="NF2" s="12"/>
-      <c r="NG2" s="12"/>
-      <c r="NH2" s="12"/>
-      <c r="NI2" s="12"/>
-      <c r="NJ2" s="12"/>
-      <c r="NK2" s="12"/>
-      <c r="NL2" s="12"/>
-      <c r="NM2" s="12"/>
-      <c r="NN2" s="12"/>
-      <c r="NO2" s="12"/>
-      <c r="NP2" s="12"/>
-      <c r="NQ2" s="12"/>
-      <c r="NR2" s="12"/>
-      <c r="NS2" s="12"/>
-      <c r="NT2" s="12"/>
-      <c r="NU2" s="12"/>
-      <c r="NV2" s="12"/>
-      <c r="NW2" s="12"/>
-      <c r="NX2" s="12"/>
-      <c r="NY2" s="12"/>
-      <c r="NZ2" s="12"/>
-      <c r="OA2" s="12"/>
-      <c r="OB2" s="12"/>
-      <c r="OC2" s="12"/>
-      <c r="OD2" s="12"/>
-      <c r="OE2" s="12"/>
-      <c r="OF2" s="12"/>
-      <c r="OG2" s="12"/>
-      <c r="OH2" s="12"/>
-      <c r="OI2" s="12"/>
-      <c r="OJ2" s="12"/>
-      <c r="OK2" s="12"/>
-      <c r="OL2" s="12"/>
-      <c r="OM2" s="12"/>
-      <c r="ON2" s="12"/>
-      <c r="OO2" s="12"/>
-      <c r="OP2" s="12"/>
-      <c r="OQ2" s="12"/>
-      <c r="OR2" s="12"/>
-      <c r="OS2" s="12"/>
-      <c r="OT2" s="12"/>
-      <c r="OU2" s="12"/>
-      <c r="OV2" s="12"/>
-      <c r="OW2" s="12"/>
-      <c r="OX2" s="12"/>
-      <c r="OY2" s="12"/>
-      <c r="OZ2" s="12"/>
-      <c r="PA2" s="12"/>
-      <c r="PB2" s="12"/>
-      <c r="PC2" s="12"/>
-      <c r="PD2" s="12"/>
-      <c r="PE2" s="12"/>
-      <c r="PF2" s="12"/>
-      <c r="PG2" s="12"/>
-      <c r="PH2" s="12"/>
-      <c r="PI2" s="12"/>
-      <c r="PJ2" s="12"/>
-      <c r="PK2" s="12"/>
-      <c r="PL2" s="12"/>
-      <c r="PM2" s="12"/>
-      <c r="PN2" s="12"/>
-      <c r="PO2" s="12"/>
-      <c r="PP2" s="12"/>
-      <c r="PQ2" s="12"/>
-      <c r="PR2" s="12"/>
-      <c r="PS2" s="12"/>
-      <c r="PT2" s="12"/>
-      <c r="PU2" s="12"/>
-      <c r="PV2" s="12"/>
-      <c r="PW2" s="12"/>
-      <c r="PX2" s="12"/>
-      <c r="PY2" s="12"/>
-      <c r="PZ2" s="12"/>
-      <c r="QA2" s="12"/>
-      <c r="QB2" s="12"/>
-      <c r="QC2" s="12"/>
-      <c r="QD2" s="12"/>
-      <c r="QE2" s="12"/>
-      <c r="QF2" s="12"/>
-      <c r="QG2" s="12"/>
-      <c r="QH2" s="12"/>
-      <c r="QI2" s="12"/>
-      <c r="QJ2" s="12"/>
-      <c r="QK2" s="12"/>
-      <c r="QL2" s="12"/>
-      <c r="QM2" s="12"/>
-      <c r="QN2" s="12"/>
-      <c r="QO2" s="12"/>
-      <c r="QP2" s="12"/>
-      <c r="QQ2" s="12"/>
-      <c r="QR2" s="12"/>
-      <c r="QS2" s="12"/>
-      <c r="QT2" s="12"/>
-      <c r="QU2" s="12"/>
-      <c r="QV2" s="12"/>
-      <c r="QW2" s="12"/>
-      <c r="QX2" s="12"/>
-      <c r="QY2" s="12"/>
-      <c r="QZ2" s="12"/>
-      <c r="RA2" s="12"/>
-      <c r="RB2" s="12"/>
-      <c r="RC2" s="12"/>
-      <c r="RD2" s="12"/>
-      <c r="RE2" s="12"/>
-      <c r="RF2" s="12"/>
-      <c r="RG2" s="12"/>
-      <c r="RH2" s="12"/>
-      <c r="RI2" s="12"/>
-      <c r="RJ2" s="12"/>
-      <c r="RK2" s="12"/>
-      <c r="RL2" s="12"/>
-      <c r="RM2" s="12"/>
-      <c r="RN2" s="12"/>
-      <c r="RO2" s="12"/>
-      <c r="RP2" s="12"/>
-      <c r="RQ2" s="12"/>
-      <c r="RR2" s="12"/>
-      <c r="RS2" s="12"/>
-      <c r="RT2" s="12"/>
-      <c r="RU2" s="12"/>
-      <c r="RV2" s="12"/>
-      <c r="RW2" s="12"/>
-      <c r="RX2" s="12"/>
-      <c r="RY2" s="12"/>
-      <c r="RZ2" s="12"/>
-      <c r="SA2" s="12"/>
-      <c r="SB2" s="12"/>
-      <c r="SC2" s="12"/>
-      <c r="SD2" s="12"/>
-      <c r="SE2" s="12"/>
-      <c r="SF2" s="12"/>
-      <c r="SG2" s="12"/>
-      <c r="SH2" s="12"/>
-      <c r="SI2" s="12"/>
-      <c r="SJ2" s="13"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="16"/>
+      <c r="CC2" s="16"/>
+      <c r="CD2" s="16"/>
+      <c r="CE2" s="16"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="16"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="16"/>
+      <c r="CU2" s="16"/>
+      <c r="CV2" s="16"/>
+      <c r="CW2" s="16"/>
+      <c r="CX2" s="16"/>
+      <c r="CY2" s="16"/>
+      <c r="CZ2" s="16"/>
+      <c r="DA2" s="16"/>
+      <c r="DB2" s="16"/>
+      <c r="DC2" s="16"/>
+      <c r="DD2" s="16"/>
+      <c r="DE2" s="16"/>
+      <c r="DF2" s="16"/>
+      <c r="DG2" s="16"/>
+      <c r="DH2" s="16"/>
+      <c r="DI2" s="16"/>
+      <c r="DJ2" s="16"/>
+      <c r="DK2" s="16"/>
+      <c r="DL2" s="16"/>
+      <c r="DM2" s="16"/>
+      <c r="DN2" s="16"/>
+      <c r="DO2" s="16"/>
+      <c r="DP2" s="16"/>
+      <c r="DQ2" s="16"/>
+      <c r="DR2" s="16"/>
+      <c r="DS2" s="16"/>
+      <c r="DT2" s="16"/>
+      <c r="DU2" s="16"/>
+      <c r="DV2" s="16"/>
+      <c r="DW2" s="16"/>
+      <c r="DX2" s="16"/>
+      <c r="DY2" s="16"/>
+      <c r="DZ2" s="16"/>
+      <c r="EA2" s="16"/>
+      <c r="EB2" s="16"/>
+      <c r="EC2" s="16"/>
+      <c r="ED2" s="16"/>
+      <c r="EE2" s="16"/>
+      <c r="EF2" s="16"/>
+      <c r="EG2" s="16"/>
+      <c r="EH2" s="16"/>
+      <c r="EI2" s="16"/>
+      <c r="EJ2" s="16"/>
+      <c r="EK2" s="16"/>
+      <c r="EL2" s="16"/>
+      <c r="EM2" s="16"/>
+      <c r="EN2" s="16"/>
+      <c r="EO2" s="16"/>
+      <c r="EP2" s="16"/>
+      <c r="EQ2" s="16"/>
+      <c r="ER2" s="16"/>
+      <c r="ES2" s="16"/>
+      <c r="ET2" s="16"/>
+      <c r="EU2" s="16"/>
+      <c r="EV2" s="16"/>
+      <c r="EW2" s="16"/>
+      <c r="EX2" s="16"/>
+      <c r="EY2" s="16"/>
+      <c r="EZ2" s="16"/>
+      <c r="FA2" s="16"/>
+      <c r="FB2" s="16"/>
+      <c r="FC2" s="16"/>
+      <c r="FD2" s="16"/>
+      <c r="FE2" s="16"/>
+      <c r="FF2" s="16"/>
+      <c r="FG2" s="16"/>
+      <c r="FH2" s="16"/>
+      <c r="FI2" s="16"/>
+      <c r="FJ2" s="16"/>
+      <c r="FK2" s="16"/>
+      <c r="FL2" s="16"/>
+      <c r="FM2" s="16"/>
+      <c r="FN2" s="16"/>
+      <c r="FO2" s="16"/>
+      <c r="FP2" s="16"/>
+      <c r="FQ2" s="16"/>
+      <c r="FR2" s="16"/>
+      <c r="FS2" s="16"/>
+      <c r="FT2" s="16"/>
+      <c r="FU2" s="16"/>
+      <c r="FV2" s="16"/>
+      <c r="FW2" s="16"/>
+      <c r="FX2" s="16"/>
+      <c r="FY2" s="16"/>
+      <c r="FZ2" s="16"/>
+      <c r="GA2" s="16"/>
+      <c r="GB2" s="16"/>
+      <c r="GC2" s="16"/>
+      <c r="GD2" s="16"/>
+      <c r="GE2" s="16"/>
+      <c r="GF2" s="16"/>
+      <c r="GG2" s="16"/>
+      <c r="GH2" s="16"/>
+      <c r="GI2" s="16"/>
+      <c r="GJ2" s="16"/>
+      <c r="GK2" s="16"/>
+      <c r="GL2" s="16"/>
+      <c r="GM2" s="16"/>
+      <c r="GN2" s="16"/>
+      <c r="GO2" s="16"/>
+      <c r="GP2" s="16"/>
+      <c r="GQ2" s="16"/>
+      <c r="GR2" s="16"/>
+      <c r="GS2" s="16"/>
+      <c r="GT2" s="16"/>
+      <c r="GU2" s="16"/>
+      <c r="GV2" s="16"/>
+      <c r="GW2" s="16"/>
+      <c r="GX2" s="16"/>
+      <c r="GY2" s="16"/>
+      <c r="GZ2" s="16"/>
+      <c r="HA2" s="16"/>
+      <c r="HB2" s="16"/>
+      <c r="HC2" s="16"/>
+      <c r="HD2" s="16"/>
+      <c r="HE2" s="16"/>
+      <c r="HF2" s="16"/>
+      <c r="HG2" s="16"/>
+      <c r="HH2" s="16"/>
+      <c r="HI2" s="16"/>
+      <c r="HJ2" s="16"/>
+      <c r="HK2" s="16"/>
+      <c r="HL2" s="16"/>
+      <c r="HM2" s="16"/>
+      <c r="HN2" s="16"/>
+      <c r="HO2" s="16"/>
+      <c r="HP2" s="16"/>
+      <c r="HQ2" s="16"/>
+      <c r="HR2" s="16"/>
+      <c r="HS2" s="16"/>
+      <c r="HT2" s="16"/>
+      <c r="HU2" s="16"/>
+      <c r="HV2" s="16"/>
+      <c r="HW2" s="16"/>
+      <c r="HX2" s="16"/>
+      <c r="HY2" s="16"/>
+      <c r="HZ2" s="16"/>
+      <c r="IA2" s="16"/>
+      <c r="IB2" s="16"/>
+      <c r="IC2" s="16"/>
+      <c r="ID2" s="16"/>
+      <c r="IE2" s="16"/>
+      <c r="IF2" s="16"/>
+      <c r="IG2" s="16"/>
+      <c r="IH2" s="16"/>
+      <c r="II2" s="16"/>
+      <c r="IJ2" s="16"/>
+      <c r="IK2" s="16"/>
+      <c r="IL2" s="16"/>
+      <c r="IM2" s="16"/>
+      <c r="IN2" s="16"/>
+      <c r="IO2" s="16"/>
+      <c r="IP2" s="16"/>
+      <c r="IQ2" s="16"/>
+      <c r="IR2" s="16"/>
+      <c r="IS2" s="16"/>
+      <c r="IT2" s="16"/>
+      <c r="IU2" s="16"/>
+      <c r="IV2" s="16"/>
+      <c r="IW2" s="16"/>
+      <c r="IX2" s="16"/>
+      <c r="IY2" s="16"/>
+      <c r="IZ2" s="16"/>
+      <c r="JA2" s="16"/>
+      <c r="JB2" s="16"/>
+      <c r="JC2" s="16"/>
+      <c r="JD2" s="16"/>
+      <c r="JE2" s="16"/>
+      <c r="JF2" s="16"/>
+      <c r="JG2" s="16"/>
+      <c r="JH2" s="16"/>
+      <c r="JI2" s="16"/>
+      <c r="JJ2" s="16"/>
+      <c r="JK2" s="16"/>
+      <c r="JL2" s="16"/>
+      <c r="JM2" s="16"/>
+      <c r="JN2" s="16"/>
+      <c r="JO2" s="16"/>
+      <c r="JP2" s="16"/>
+      <c r="JQ2" s="16"/>
+      <c r="JR2" s="16"/>
+      <c r="JS2" s="16"/>
+      <c r="JT2" s="16"/>
+      <c r="JU2" s="16"/>
+      <c r="JV2" s="16"/>
+      <c r="JW2" s="16"/>
+      <c r="JX2" s="16"/>
+      <c r="JY2" s="16"/>
+      <c r="JZ2" s="16"/>
+      <c r="KA2" s="16"/>
+      <c r="KB2" s="16"/>
+      <c r="KC2" s="16"/>
+      <c r="KD2" s="16"/>
+      <c r="KE2" s="16"/>
+      <c r="KF2" s="16"/>
+      <c r="KG2" s="16"/>
+      <c r="KH2" s="16"/>
+      <c r="KI2" s="16"/>
+      <c r="KJ2" s="16"/>
+      <c r="KK2" s="16"/>
+      <c r="KL2" s="16"/>
+      <c r="KM2" s="16"/>
+      <c r="KN2" s="16"/>
+      <c r="KO2" s="16"/>
+      <c r="KP2" s="16"/>
+      <c r="KQ2" s="16"/>
+      <c r="KR2" s="16"/>
+      <c r="KS2" s="16"/>
+      <c r="KT2" s="16"/>
+      <c r="KU2" s="16"/>
+      <c r="KV2" s="16"/>
+      <c r="KW2" s="16"/>
+      <c r="KX2" s="16"/>
+      <c r="KY2" s="16"/>
+      <c r="KZ2" s="16"/>
+      <c r="LA2" s="16"/>
+      <c r="LB2" s="16"/>
+      <c r="LC2" s="16"/>
+      <c r="LD2" s="16"/>
+      <c r="LE2" s="16"/>
+      <c r="LF2" s="16"/>
+      <c r="LG2" s="16"/>
+      <c r="LH2" s="16"/>
+      <c r="LI2" s="16"/>
+      <c r="LJ2" s="16"/>
+      <c r="LK2" s="16"/>
+      <c r="LL2" s="16"/>
+      <c r="LM2" s="16"/>
+      <c r="LN2" s="16"/>
+      <c r="LO2" s="16"/>
+      <c r="LP2" s="16"/>
+      <c r="LQ2" s="16"/>
+      <c r="LR2" s="16"/>
+      <c r="LS2" s="16"/>
+      <c r="LT2" s="16"/>
+      <c r="LU2" s="16"/>
+      <c r="LV2" s="16"/>
+      <c r="LW2" s="16"/>
+      <c r="LX2" s="16"/>
+      <c r="LY2" s="16"/>
+      <c r="LZ2" s="16"/>
+      <c r="MA2" s="16"/>
+      <c r="MB2" s="16"/>
+      <c r="MC2" s="16"/>
+      <c r="MD2" s="16"/>
+      <c r="ME2" s="16"/>
+      <c r="MF2" s="16"/>
+      <c r="MG2" s="16"/>
+      <c r="MH2" s="16"/>
+      <c r="MI2" s="16"/>
+      <c r="MJ2" s="16"/>
+      <c r="MK2" s="16"/>
+      <c r="ML2" s="16"/>
+      <c r="MM2" s="16"/>
+      <c r="MN2" s="16"/>
+      <c r="MO2" s="16"/>
+      <c r="MP2" s="16"/>
+      <c r="MQ2" s="16"/>
+      <c r="MR2" s="16"/>
+      <c r="MS2" s="16"/>
+      <c r="MT2" s="16"/>
+      <c r="MU2" s="16"/>
+      <c r="MV2" s="16"/>
+      <c r="MW2" s="16"/>
+      <c r="MX2" s="16"/>
+      <c r="MY2" s="16"/>
+      <c r="MZ2" s="16"/>
+      <c r="NA2" s="16"/>
+      <c r="NB2" s="16"/>
+      <c r="NC2" s="16"/>
+      <c r="ND2" s="16"/>
+      <c r="NE2" s="16"/>
+      <c r="NF2" s="16"/>
+      <c r="NG2" s="16"/>
+      <c r="NH2" s="16"/>
+      <c r="NI2" s="16"/>
+      <c r="NJ2" s="16"/>
+      <c r="NK2" s="16"/>
+      <c r="NL2" s="16"/>
+      <c r="NM2" s="16"/>
+      <c r="NN2" s="16"/>
+      <c r="NO2" s="16"/>
+      <c r="NP2" s="16"/>
+      <c r="NQ2" s="16"/>
+      <c r="NR2" s="16"/>
+      <c r="NS2" s="16"/>
+      <c r="NT2" s="16"/>
+      <c r="NU2" s="16"/>
+      <c r="NV2" s="16"/>
+      <c r="NW2" s="16"/>
+      <c r="NX2" s="16"/>
+      <c r="NY2" s="16"/>
+      <c r="NZ2" s="16"/>
+      <c r="OA2" s="16"/>
+      <c r="OB2" s="16"/>
+      <c r="OC2" s="16"/>
+      <c r="OD2" s="16"/>
+      <c r="OE2" s="16"/>
+      <c r="OF2" s="16"/>
+      <c r="OG2" s="16"/>
+      <c r="OH2" s="16"/>
+      <c r="OI2" s="16"/>
+      <c r="OJ2" s="16"/>
+      <c r="OK2" s="16"/>
+      <c r="OL2" s="16"/>
+      <c r="OM2" s="16"/>
+      <c r="ON2" s="16"/>
+      <c r="OO2" s="16"/>
+      <c r="OP2" s="16"/>
+      <c r="OQ2" s="16"/>
+      <c r="OR2" s="16"/>
+      <c r="OS2" s="16"/>
+      <c r="OT2" s="16"/>
+      <c r="OU2" s="16"/>
+      <c r="OV2" s="16"/>
+      <c r="OW2" s="16"/>
+      <c r="OX2" s="16"/>
+      <c r="OY2" s="16"/>
+      <c r="OZ2" s="16"/>
+      <c r="PA2" s="16"/>
+      <c r="PB2" s="16"/>
+      <c r="PC2" s="16"/>
+      <c r="PD2" s="16"/>
+      <c r="PE2" s="16"/>
+      <c r="PF2" s="16"/>
+      <c r="PG2" s="16"/>
+      <c r="PH2" s="16"/>
+      <c r="PI2" s="16"/>
+      <c r="PJ2" s="16"/>
+      <c r="PK2" s="16"/>
+      <c r="PL2" s="16"/>
+      <c r="PM2" s="16"/>
+      <c r="PN2" s="16"/>
+      <c r="PO2" s="16"/>
+      <c r="PP2" s="16"/>
+      <c r="PQ2" s="16"/>
+      <c r="PR2" s="16"/>
+      <c r="PS2" s="16"/>
+      <c r="PT2" s="16"/>
+      <c r="PU2" s="16"/>
+      <c r="PV2" s="16"/>
+      <c r="PW2" s="16"/>
+      <c r="PX2" s="16"/>
+      <c r="PY2" s="16"/>
+      <c r="PZ2" s="16"/>
+      <c r="QA2" s="16"/>
+      <c r="QB2" s="16"/>
+      <c r="QC2" s="16"/>
+      <c r="QD2" s="16"/>
+      <c r="QE2" s="16"/>
+      <c r="QF2" s="16"/>
+      <c r="QG2" s="16"/>
+      <c r="QH2" s="16"/>
+      <c r="QI2" s="16"/>
+      <c r="QJ2" s="16"/>
+      <c r="QK2" s="16"/>
+      <c r="QL2" s="16"/>
+      <c r="QM2" s="16"/>
+      <c r="QN2" s="16"/>
+      <c r="QO2" s="16"/>
+      <c r="QP2" s="16"/>
+      <c r="QQ2" s="16"/>
+      <c r="QR2" s="16"/>
+      <c r="QS2" s="16"/>
+      <c r="QT2" s="16"/>
+      <c r="QU2" s="16"/>
+      <c r="QV2" s="16"/>
+      <c r="QW2" s="16"/>
+      <c r="QX2" s="16"/>
+      <c r="QY2" s="16"/>
+      <c r="QZ2" s="16"/>
+      <c r="RA2" s="16"/>
+      <c r="RB2" s="16"/>
+      <c r="RC2" s="16"/>
+      <c r="RD2" s="16"/>
+      <c r="RE2" s="16"/>
+      <c r="RF2" s="16"/>
+      <c r="RG2" s="16"/>
+      <c r="RH2" s="16"/>
+      <c r="RI2" s="16"/>
+      <c r="RJ2" s="16"/>
+      <c r="RK2" s="16"/>
+      <c r="RL2" s="16"/>
+      <c r="RM2" s="16"/>
+      <c r="RN2" s="16"/>
+      <c r="RO2" s="16"/>
+      <c r="RP2" s="16"/>
+      <c r="RQ2" s="16"/>
+      <c r="RR2" s="16"/>
+      <c r="RS2" s="16"/>
+      <c r="RT2" s="16"/>
+      <c r="RU2" s="16"/>
+      <c r="RV2" s="16"/>
+      <c r="RW2" s="16"/>
+      <c r="RX2" s="16"/>
+      <c r="RY2" s="16"/>
+      <c r="RZ2" s="16"/>
+      <c r="SA2" s="16"/>
+      <c r="SB2" s="16"/>
+      <c r="SC2" s="16"/>
+      <c r="SD2" s="16"/>
+      <c r="SE2" s="16"/>
+      <c r="SF2" s="16"/>
+      <c r="SG2" s="16"/>
+      <c r="SH2" s="16"/>
+      <c r="SI2" s="16"/>
+      <c r="SJ2" s="17"/>
     </row>
     <row r="3" spans="3:504" ht="19" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -2322,7 +2334,7 @@
       <c r="SJ3" s="3"/>
     </row>
     <row r="4" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2832,7 +2844,7 @@
       <c r="SJ4" s="5"/>
     </row>
     <row r="5" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -4338,7 +4350,7 @@
       </c>
     </row>
     <row r="6" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -4846,7 +4858,7 @@
       <c r="SJ6" s="5"/>
     </row>
     <row r="7" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
@@ -5354,7 +5366,7 @@
       <c r="SJ7" s="5"/>
     </row>
     <row r="8" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
@@ -5862,7 +5874,7 @@
       <c r="SJ8" s="5"/>
     </row>
     <row r="9" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
@@ -7368,13 +7380,11 @@
       </c>
     </row>
     <row r="10" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -7876,13 +7886,11 @@
       <c r="SJ10" s="5"/>
     </row>
     <row r="11" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C11" s="16"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
@@ -9382,11 +9390,11 @@
       </c>
     </row>
     <row r="12" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -9890,4532 +9898,4532 @@
       <c r="SJ12" s="5"/>
     </row>
     <row r="13" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="ED13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="ER13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="ES13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="ET13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="FZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="GZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="HZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="ID13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="II13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="IZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="JZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="KZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="LZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="ME13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="ML13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="MZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="ND13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="NZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="ON13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="OZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="PZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="QZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RK13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RL13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RM13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RN13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RO13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RP13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RQ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RR13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RS13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RT13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RU13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RV13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RW13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RX13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RY13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="RZ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SA13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SB13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SC13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SD13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SE13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SF13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SG13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SH13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SI13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="SJ13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ED14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ER14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ES14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ET14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ID14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="II14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ME14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ML14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ND14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ON14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RK14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RL14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RM14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RN14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RO14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RP14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RQ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RR14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RS14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RT14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RU14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RV14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RW14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RX14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RY14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RZ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SA14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SB14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SC14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SD14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SE14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SF14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SG14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SH14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SI14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SJ14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ED15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ER15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ES15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ET15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="EZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="FZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="GZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="HZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ID15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="II15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="IZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="JZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="KZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ME15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ML15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="MZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ND15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="NZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="ON15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="OZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="PZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="QZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RK15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RL15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RM15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RN15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RO15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RP15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RQ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RR15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RS15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RT15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RU15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RV15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RW15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RX15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RY15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="RZ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SA15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SB15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SC15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SD15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SE15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SF15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SG15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SH15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SI15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="SJ15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C16" s="15"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -14918,12 +14926,12 @@
       <c r="SJ16" s="5"/>
     </row>
     <row r="17" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C17" s="15"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -15426,12 +15434,12 @@
       <c r="SJ17" s="5"/>
     </row>
     <row r="18" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C18" s="16"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -15934,11 +15942,11 @@
       <c r="SJ18" s="5"/>
     </row>
     <row r="19" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -16442,11 +16450,11 @@
       <c r="SJ19" s="5"/>
     </row>
     <row r="20" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -16950,9 +16958,9 @@
       <c r="SJ20" s="5"/>
     </row>
     <row r="21" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C21" s="16"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -17456,11 +17464,11 @@
       <c r="SJ21" s="5"/>
     </row>
     <row r="22" spans="3:504" ht="19" x14ac:dyDescent="0.2">
-      <c r="C22" s="14" t="s">
-        <v>41</v>
+      <c r="C22" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -17964,12 +17972,12 @@
       <c r="SJ22" s="7"/>
     </row>
     <row r="23" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C23" s="14"/>
+      <c r="C23" s="12"/>
       <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -18472,12 +18480,12 @@
       <c r="SJ23" s="8"/>
     </row>
     <row r="24" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
       <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -18980,9 +18988,9 @@
       <c r="SJ24" s="8"/>
     </row>
     <row r="25" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -19486,9 +19494,9 @@
       <c r="SJ25" s="8"/>
     </row>
     <row r="26" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C26" s="16"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -19992,11 +20000,11 @@
       <c r="SJ26" s="9"/>
     </row>
     <row r="27" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C27" s="14" t="s">
-        <v>41</v>
+      <c r="C27" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -20500,9 +20508,9 @@
       <c r="SJ27" s="8"/>
     </row>
     <row r="28" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -21006,9 +21014,9 @@
       <c r="SJ28" s="8"/>
     </row>
     <row r="29" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C29" s="15"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -21512,9 +21520,9 @@
       <c r="SJ29" s="8"/>
     </row>
     <row r="30" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -22018,9 +22026,9 @@
       <c r="SJ30" s="8"/>
     </row>
     <row r="31" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C31" s="15"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -22524,9 +22532,9 @@
       <c r="SJ31" s="8"/>
     </row>
     <row r="32" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -23030,9 +23038,9 @@
       <c r="SJ32" s="8"/>
     </row>
     <row r="33" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C33" s="15"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -23536,9 +23544,9 @@
       <c r="SJ33" s="8"/>
     </row>
     <row r="34" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -24042,9 +24050,9 @@
       <c r="SJ34" s="8"/>
     </row>
     <row r="35" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -24548,9 +24556,9 @@
       <c r="SJ35" s="8"/>
     </row>
     <row r="36" spans="3:504" x14ac:dyDescent="0.2">
-      <c r="C36" s="16"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -25118,8 +25126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25134,103 +25142,81 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
       <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2">
-        <v>199</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3">
-        <v>479</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4">
-        <v>699</v>
-      </c>
-      <c r="F4">
-        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="18">
-        <v>1399</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
